--- a/data/trans_orig/P36B05_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B05_2023-Provincia-trans_orig.xlsx
@@ -537,7 +537,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la frecuencia de consumición de pasta en 2023 (Tasa respuesta: 99,85%)</t>
+          <t>Población según la frecuencia de consumo de pasta en 2023 (Tasa respuesta: 99,85%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -696,7 +696,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -717,7 +717,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,28%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,76%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>79,94%</t>
+          <t>80,28%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>88,39%</t>
+          <t>88,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>79,35%</t>
+          <t>78,98%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>86,43%</t>
+          <t>86,33%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>80,81%</t>
+          <t>81,06%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>86,58%</t>
+          <t>86,46%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>16,23%</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,32%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,56%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>8,44%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>44,22%</t>
+          <t>44,02%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>55,28%</t>
+          <t>54,92%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>54,46%</t>
+          <t>54,44%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>62,06%</t>
+          <t>62,33%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>51,04%</t>
+          <t>50,53%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>57,66%</t>
+          <t>57,31%</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37,52%</t>
+          <t>37,67%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>48,47%</t>
+          <t>48,81%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,61%</t>
+          <t>28,46%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>36,13%</t>
+          <t>35,94%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>34,14%</t>
+          <t>34,38%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>41,01%</t>
+          <t>40,87%</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,23%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>2,97%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>8,17%</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>62,12%</t>
+          <t>62,6%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>72,44%</t>
+          <t>73,16%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>60,3%</t>
+          <t>60,22%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>68,72%</t>
+          <t>68,58%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>62,52%</t>
+          <t>62,5%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>69,18%</t>
+          <t>69,21%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>27,88%</t>
+          <t>27,51%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>21,38%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>29,22%</t>
+          <t>29,38%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>21,26%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>27,3%</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,51%</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,21%</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2052,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>26,14%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>23,03%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>32,69%</t>
+          <t>31,86%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>21,42%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>28,19%</t>
+          <t>28,41%</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>57,22%</t>
+          <t>57,17%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>69,87%</t>
+          <t>69,53%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>49,78%</t>
+          <t>50,75%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>63,13%</t>
+          <t>63,32%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>55,29%</t>
+          <t>55,26%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>64,23%</t>
+          <t>64,48%</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>20,12%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2215,12 +2215,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>26,73%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>19,8%</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,5%</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2524,12 +2524,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,03%</t>
         </is>
       </c>
     </row>
@@ -2553,12 +2553,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>42,1%</t>
+          <t>42,43%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>54,77%</t>
+          <t>54,7%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>48,87%</t>
+          <t>49,01%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>58,82%</t>
+          <t>58,77%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2595,12 +2595,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>47,52%</t>
+          <t>47,48%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>55,66%</t>
+          <t>55,46%</t>
         </is>
       </c>
     </row>
@@ -2624,12 +2624,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>40,87%</t>
+          <t>41,33%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>53,43%</t>
+          <t>53,6%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2645,12 +2645,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>38,64%</t>
+          <t>38,55%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>48,46%</t>
+          <t>48,15%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>41,18%</t>
+          <t>41,2%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>48,89%</t>
+          <t>48,96%</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2716,12 +2716,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2737,12 +2737,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>4,03%</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2841,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,6%</t>
         </is>
       </c>
     </row>
@@ -2912,12 +2912,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>16,61%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2954,12 +2954,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>15,65%</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>64,33%</t>
+          <t>65,2%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>74,67%</t>
+          <t>75,76%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>69,73%</t>
+          <t>69,41%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>78,24%</t>
+          <t>78,4%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>69,24%</t>
+          <t>68,96%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>76,04%</t>
+          <t>75,89%</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3054,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3075,12 +3075,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3096,12 +3096,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>14,49%</t>
         </is>
       </c>
     </row>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,15%</t>
         </is>
       </c>
     </row>
@@ -3271,12 +3271,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
@@ -3292,12 +3292,12 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3313,12 +3313,12 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,12%</t>
         </is>
       </c>
     </row>
@@ -3342,12 +3342,12 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
@@ -3363,12 +3363,12 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>7,38%</t>
         </is>
       </c>
     </row>
@@ -3413,12 +3413,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>56,37%</t>
+          <t>56,35%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>65,17%</t>
+          <t>65,37%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>60,14%</t>
+          <t>60,5%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>80,13%</t>
+          <t>80,74%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>60,02%</t>
+          <t>60,32%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>73,25%</t>
+          <t>73,29%</t>
         </is>
       </c>
     </row>
@@ -3484,12 +3484,12 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>24,13%</t>
+          <t>23,87%</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>32,58%</t>
+          <t>32,68%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
@@ -3505,12 +3505,12 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>26,64%</t>
+          <t>26,55%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
@@ -3526,12 +3526,12 @@
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>18,72%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>28,03%</t>
         </is>
       </c>
     </row>
@@ -3555,12 +3555,12 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3576,12 +3576,12 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
@@ -3597,12 +3597,12 @@
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,08%</t>
         </is>
       </c>
     </row>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,71%</t>
         </is>
       </c>
     </row>
@@ -3772,12 +3772,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>22,56%</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
+          <t>31,89%</t>
         </is>
       </c>
       <c r="H48" s="2" t="n">
@@ -3864,12 +3864,12 @@
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>28,53%</t>
+          <t>28,51%</t>
         </is>
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>34,64%</t>
+          <t>34,6%</t>
         </is>
       </c>
       <c r="M48" s="2" t="n">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>26,47%</t>
+          <t>26,39%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>32,14%</t>
         </is>
       </c>
     </row>
@@ -3914,12 +3914,12 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>45,13%</t>
+          <t>45,85%</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>62,48%</t>
+          <t>62,55%</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
@@ -3935,12 +3935,12 @@
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>56,78%</t>
+          <t>56,57%</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>63,05%</t>
+          <t>63,09%</t>
         </is>
       </c>
       <c r="M49" s="2" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>52,71%</t>
+          <t>51,93%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>61,79%</t>
+          <t>61,49%</t>
         </is>
       </c>
     </row>
@@ -3985,12 +3985,12 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>29,26%</t>
+          <t>30,39%</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
@@ -4006,12 +4006,12 @@
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="M50" s="2" t="n">
@@ -4027,12 +4027,12 @@
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>17,49%</t>
         </is>
       </c>
     </row>
@@ -4131,12 +4131,12 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="M52" s="2" t="n">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,26%</t>
         </is>
       </c>
     </row>
@@ -4202,12 +4202,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
@@ -4223,12 +4223,12 @@
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="M53" s="2" t="n">
@@ -4244,12 +4244,12 @@
       </c>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>8,21%</t>
         </is>
       </c>
     </row>
@@ -4273,12 +4273,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>50,54%</t>
+          <t>50,56%</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>55,56%</t>
+          <t>55,65%</t>
         </is>
       </c>
       <c r="H54" s="2" t="n">
@@ -4294,12 +4294,12 @@
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>55,13%</t>
+          <t>55,15%</t>
         </is>
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>61,76%</t>
+          <t>60,88%</t>
         </is>
       </c>
       <c r="M54" s="2" t="n">
@@ -4315,12 +4315,12 @@
       </c>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>53,89%</t>
+          <t>53,76%</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
         <is>
-          <t>58,05%</t>
+          <t>57,97%</t>
         </is>
       </c>
     </row>
@@ -4344,12 +4344,12 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>32,55%</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>36,93%</t>
+          <t>36,82%</t>
         </is>
       </c>
       <c r="H55" s="2" t="n">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>28,46%</t>
         </is>
       </c>
       <c r="L55" s="2" t="inlineStr">
@@ -4386,12 +4386,12 @@
       </c>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>30,89%</t>
+          <t>30,99%</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
         <is>
-          <t>34,29%</t>
+          <t>34,4%</t>
         </is>
       </c>
     </row>
@@ -4415,12 +4415,12 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="H56" s="2" t="n">
@@ -4436,12 +4436,12 @@
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="M56" s="2" t="n">
@@ -4457,12 +4457,12 @@
       </c>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>6,15%</t>
         </is>
       </c>
     </row>
